--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NILSEGGE\ipa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NILSEGGE\ipa\planen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2836,7 +2836,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -4897,13 +4897,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
@@ -4916,34 +4937,13 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2925,8 +2925,8 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -3015,7 +3015,7 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -3103,7 +3103,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
@@ -3191,8 +3191,8 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -4897,22 +4897,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -4925,25 +4928,22 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2837,7 +2837,6 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3280,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="11"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
@@ -3368,8 +3368,8 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -3457,8 +3457,8 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
@@ -4896,13 +4896,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
@@ -4915,34 +4936,13 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1361,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3368,9 +3368,8 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="10"/>
+      <c r="R45" s="11"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
@@ -3457,9 +3456,9 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="11"/>
+      <c r="Q47"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="10"/>
+      <c r="S47" s="11"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -4896,22 +4895,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -4924,25 +4926,22 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1090,6 +1090,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5597</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>18891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>354854</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Richtungspfeil 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10955206" y="8003326"/>
+          <a:ext cx="349257" cy="112747"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1361,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3459,7 +3524,7 @@
       <c r="Q47"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
-      <c r="T47" s="10"/>
+      <c r="T47" s="11"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
@@ -4163,9 +4228,9 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
+      <c r="T63"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1426,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3616,8 +3616,8 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
@@ -4960,13 +4960,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
@@ -4979,34 +5000,13 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+      <selection activeCell="S34" sqref="S33:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3706,8 +3706,8 @@
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
@@ -3794,9 +3794,9 @@
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
+      <c r="Z53"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
@@ -3883,9 +3883,9 @@
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
+      <c r="AA55"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
@@ -3972,8 +3972,8 @@
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="10"/>
@@ -4060,8 +4060,8 @@
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="10"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1426,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S33:T34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI62" sqref="AI62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4062,8 +4062,8 @@
       <c r="AA59" s="10"/>
       <c r="AB59"/>
       <c r="AC59"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
       <c r="AF59" s="10"/>
       <c r="AG59" s="10"/>
       <c r="AH59" s="10"/>
@@ -4152,8 +4152,8 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
       <c r="AJ61" s="10"/>
@@ -4960,22 +4960,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -4988,25 +4991,22 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1155,6 +1155,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>23438</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>21002</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>115392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Richtungspfeil 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14743226" y="7739557"/>
+          <a:ext cx="349257" cy="113066"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>14645</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>12210</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>4023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Richtungspfeil 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15437818" y="8910399"/>
+          <a:ext cx="349257" cy="113066"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1426,8 +1556,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI62" sqref="AI62"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG90" sqref="AG90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4375,7 +4505,7 @@
       <c r="AE66" s="10"/>
       <c r="AF66" s="10"/>
       <c r="AG66" s="10"/>
-      <c r="AH66" s="10"/>
+      <c r="AH66" s="11"/>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
@@ -4464,7 +4594,7 @@
       <c r="AF68" s="10"/>
       <c r="AG68" s="10"/>
       <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
+      <c r="AI68" s="11"/>
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
@@ -4687,7 +4817,7 @@
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
       <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
+      <c r="AK73" s="11"/>
       <c r="AL73" s="10"/>
       <c r="AM73" s="10"/>
       <c r="AN73" s="10"/>
@@ -4960,13 +5090,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
@@ -4979,34 +5130,13 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/planen/Zeitplan.xlsx
+++ b/planen/Zeitplan.xlsx
@@ -1285,6 +1285,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1456</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>350713</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>113298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Richtungspfeil 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17268920" y="9921933"/>
+          <a:ext cx="349257" cy="110972"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1557,7 +1622,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG90" sqref="AG90"/>
+      <selection activeCell="AQ85" sqref="AQ85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4906,7 +4971,7 @@
       <c r="AI75" s="10"/>
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
-      <c r="AL75" s="10"/>
+      <c r="AL75" s="11"/>
       <c r="AM75" s="10"/>
       <c r="AN75" s="10"/>
       <c r="AO75" s="10"/>
@@ -4994,8 +5059,8 @@
       <c r="AI77" s="10"/>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="10"/>
-      <c r="AL77" s="10"/>
-      <c r="AM77" s="10"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
       <c r="AN77" s="10"/>
       <c r="AO77" s="10"/>
     </row>
@@ -5085,27 +5150,30 @@
       <c r="AK79" s="10"/>
       <c r="AL79" s="10"/>
       <c r="AM79" s="10"/>
-      <c r="AN79" s="10"/>
+      <c r="AN79" s="11"/>
       <c r="AO79" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -5118,25 +5186,22 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
